--- a/regions/7/ckhovrebis done/kharjebi.xlsx
+++ b/regions/7/ckhovrebis done/kharjebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -725,14 +725,14 @@
   <dimension ref="A1:XFD72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="2" customWidth="1"/>
-    <col min="2" max="12" width="10.7109375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="14" width="9.140625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="30" customHeight="1">
@@ -750,8 +750,8 @@
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -760,6 +760,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AB1" s="1"/>
@@ -8977,6 +8978,12 @@
       <c r="L2" s="6">
         <v>2021</v>
       </c>
+      <c r="M2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15" customHeight="1">
       <c r="A3" s="10" t="s">
@@ -9012,8 +9019,14 @@
       <c r="K3" s="14">
         <v>7.0169432331509443</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="14">
         <v>8.2642907667687666</v>
+      </c>
+      <c r="M3" s="18">
+        <v>10.16752684978594</v>
+      </c>
+      <c r="N3" s="18">
+        <v>10.104111176965347</v>
       </c>
     </row>
     <row r="4" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15" customHeight="1">
@@ -9050,8 +9063,14 @@
       <c r="K4" s="15">
         <v>5.1917814958513544</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="15">
         <v>6.2570670081672777</v>
+      </c>
+      <c r="M4" s="19">
+        <v>7.9255027953540687</v>
+      </c>
+      <c r="N4" s="19">
+        <v>7.9925500694495861</v>
       </c>
     </row>
     <row r="5" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15" customHeight="1">
@@ -9088,8 +9107,14 @@
       <c r="K5" s="16">
         <v>2.005599809673912</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="16">
         <v>2.7242420610403237</v>
+      </c>
+      <c r="M5" s="20">
+        <v>3.2443634392388088</v>
+      </c>
+      <c r="N5" s="20">
+        <v>2.6708720336375658</v>
       </c>
     </row>
     <row r="6" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15" customHeight="1">
@@ -9126,8 +9151,14 @@
       <c r="K6" s="16">
         <v>0.13543940758132939</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="16">
         <v>0.16693853545506793</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0.26093470928875606</v>
+      </c>
+      <c r="N6" s="20">
+        <v>0.31163973846689857</v>
       </c>
     </row>
     <row r="7" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15" customHeight="1">
@@ -9164,8 +9195,14 @@
       <c r="K7" s="16">
         <v>0.16826063976394415</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="16">
         <v>0.25586425539943591</v>
+      </c>
+      <c r="M7" s="20">
+        <v>0.2998365243066381</v>
+      </c>
+      <c r="N7" s="20">
+        <v>0.40988463428002891</v>
       </c>
     </row>
     <row r="8" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15" customHeight="1">
@@ -9202,8 +9239,14 @@
       <c r="K8" s="16">
         <v>1.1983401754021645</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="16">
         <v>1.2031939540937444</v>
+      </c>
+      <c r="M8" s="20">
+        <v>1.4912468007853028</v>
+      </c>
+      <c r="N8" s="20">
+        <v>1.476696666468382</v>
       </c>
     </row>
     <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="30" customHeight="1">
@@ -9240,8 +9283,14 @@
       <c r="K9" s="16">
         <v>0.71532544390503883</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="16">
         <v>0.7443865796399699</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0.89147123033369391</v>
+      </c>
+      <c r="N9" s="20">
+        <v>1.0491288913353685</v>
       </c>
     </row>
     <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15" customHeight="1">
@@ -9278,8 +9327,14 @@
       <c r="K10" s="16">
         <v>0.44572117688343815</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="16">
         <v>0.57034988042574564</v>
+      </c>
+      <c r="M10" s="20">
+        <v>0.86093367311843572</v>
+      </c>
+      <c r="N10" s="20">
+        <v>1.0786380742203467</v>
       </c>
     </row>
     <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15" customHeight="1">
@@ -9316,8 +9371,14 @@
       <c r="K11" s="16">
         <v>1.141884041150411E-2</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="16">
         <v>2.3288831477165223E-2</v>
+      </c>
+      <c r="M11" s="20">
+        <v>6.2855011931260432E-2</v>
+      </c>
+      <c r="N11" s="20">
+        <v>5.1871855169932042E-2</v>
       </c>
     </row>
     <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15" customHeight="1">
@@ -9354,8 +9415,14 @@
       <c r="K12" s="16">
         <v>0.51167600223002419</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="16">
         <v>0.56880291063582566</v>
+      </c>
+      <c r="M12" s="20">
+        <v>0.81386140635117343</v>
+      </c>
+      <c r="N12" s="20">
+        <v>0.9438181758710642</v>
       </c>
     </row>
     <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15" customHeight="1">
@@ -9392,8 +9459,14 @@
       <c r="K13" s="15">
         <v>1.8251617372995887</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="15">
         <v>2.0072237586014894</v>
+      </c>
+      <c r="M13" s="19">
+        <v>2.2420240544318735</v>
+      </c>
+      <c r="N13" s="19">
+        <v>2.1115611075157621</v>
       </c>
     </row>
     <row r="14" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15" customHeight="1">
@@ -9430,8 +9503,14 @@
       <c r="K14" s="15">
         <v>2.9264056714316369</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="15">
         <v>2.6677549068088529</v>
+      </c>
+      <c r="M14" s="19">
+        <v>3.3242983479223245</v>
+      </c>
+      <c r="N14" s="19">
+        <v>4.3473099231427508</v>
       </c>
     </row>
     <row r="15" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15" customHeight="1">
@@ -9468,8 +9547,14 @@
       <c r="K15" s="16">
         <v>0.210348591120402</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="16">
         <v>0.24743717280213035</v>
+      </c>
+      <c r="M15" s="20">
+        <v>0.41173192280530935</v>
+      </c>
+      <c r="N15" s="20">
+        <v>0.4292186193637848</v>
       </c>
     </row>
     <row r="16" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="15" customHeight="1">
@@ -9506,11 +9591,17 @@
       <c r="K16" s="16">
         <v>0.39759494647814442</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="16">
         <v>0.33029453675254183</v>
       </c>
+      <c r="M16" s="20">
+        <v>0.46968532830921805</v>
+      </c>
+      <c r="N16" s="20">
+        <v>0.70483600937906898</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>9</v>
       </c>
@@ -9544,11 +9635,17 @@
       <c r="K17" s="16">
         <v>1.8123610298107469</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="16">
         <v>1.8508052847107253</v>
       </c>
+      <c r="M17" s="20">
+        <v>1.8927557780620254</v>
+      </c>
+      <c r="N17" s="20">
+        <v>2.3511110560269359</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
@@ -9582,11 +9679,17 @@
       <c r="K18" s="16">
         <v>0.50610110402234398</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="16">
         <v>0.23921791254345579</v>
       </c>
+      <c r="M18" s="20">
+        <v>0.55012531874577197</v>
+      </c>
+      <c r="N18" s="20">
+        <v>0.8621442383729615</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -9620,11 +9723,17 @@
       <c r="K19" s="15">
         <v>8.1181871672829935</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="15">
         <v>8.9248219149761319</v>
       </c>
+      <c r="M19" s="19">
+        <v>11.249801143276393</v>
+      </c>
+      <c r="N19" s="19">
+        <v>12.339859992592338</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
@@ -9658,11 +9767,17 @@
       <c r="K20" s="17">
         <v>9.9433489045825816</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="17">
         <v>10.932045673577621</v>
       </c>
+      <c r="M20" s="21">
+        <v>13.491825197708268</v>
+      </c>
+      <c r="N20" s="21">
+        <v>14.451421100108098</v>
+      </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:14">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9674,8 +9789,9 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:14">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -9687,8 +9803,9 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
+    <row r="23" spans="1:14" ht="30" customHeight="1">
       <c r="A23" s="26" t="s">
         <v>23</v>
       </c>
@@ -9703,8 +9820,10 @@
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="5">
         <v>2011</v>
@@ -9739,8 +9858,14 @@
       <c r="L24" s="6">
         <v>2021</v>
       </c>
+      <c r="M24" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N24" s="6">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -9774,11 +9899,17 @@
       <c r="K25" s="14">
         <v>651.16201439734084</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="14">
         <v>776.84214337093408</v>
       </c>
+      <c r="M25" s="18">
+        <v>1000.5991482557297</v>
+      </c>
+      <c r="N25" s="18">
+        <v>1004.7876740259578</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
@@ -9812,11 +9943,17 @@
       <c r="K26" s="15">
         <v>481.78968887444114</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="15">
         <v>588.16339877411156</v>
       </c>
+      <c r="M26" s="19">
+        <v>779.95873172409085</v>
+      </c>
+      <c r="N26" s="19">
+        <v>794.80675273312056</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>0</v>
       </c>
@@ -9850,11 +9987,17 @@
       <c r="K27" s="16">
         <v>186.11671332500498</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="16">
         <v>256.07836189278521</v>
       </c>
+      <c r="M27" s="20">
+        <v>319.28190029837253</v>
+      </c>
+      <c r="N27" s="20">
+        <v>265.60072937614638</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
@@ -9888,11 +10031,17 @@
       <c r="K28" s="16">
         <v>12.568577874875871</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="16">
         <v>15.692198320948574</v>
       </c>
+      <c r="M28" s="20">
+        <v>25.678914029145886</v>
+      </c>
+      <c r="N28" s="20">
+        <v>30.990530731893458</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>2</v>
       </c>
@@ -9926,11 +10075,17 @@
       <c r="K29" s="16">
         <v>15.614339961430082</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="16">
         <v>24.051203204969148</v>
       </c>
+      <c r="M29" s="20">
+        <v>29.507290737422217</v>
+      </c>
+      <c r="N29" s="20">
+        <v>40.760342110655991</v>
+      </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>3</v>
       </c>
@@ -9964,11 +10119,17 @@
       <c r="K30" s="16">
         <v>111.20420625060949</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="16">
         <v>113.1000586217983</v>
       </c>
+      <c r="M30" s="20">
+        <v>146.75547955265736</v>
+      </c>
+      <c r="N30" s="20">
+        <v>146.84781103015172</v>
+      </c>
     </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1">
+    <row r="31" spans="1:14" ht="30" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>17</v>
       </c>
@@ -10002,11 +10163,17 @@
       <c r="K31" s="16">
         <v>66.381149387425467</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="16">
         <v>69.972231416316617</v>
       </c>
+      <c r="M31" s="20">
+        <v>87.730808774324586</v>
+      </c>
+      <c r="N31" s="20">
+        <v>104.32899638728033</v>
+      </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>4</v>
       </c>
@@ -10040,11 +10207,17 @@
       <c r="K32" s="16">
         <v>41.362269831081825</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="16">
         <v>53.612806722981226</v>
       </c>
+      <c r="M32" s="20">
+        <v>84.725569231727135</v>
+      </c>
+      <c r="N32" s="20">
+        <v>107.26349133830573</v>
+      </c>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>5</v>
       </c>
@@ -10078,11 +10251,17 @@
       <c r="K33" s="16">
         <v>1.0596516000454907</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="16">
         <v>2.1891468090732671</v>
       </c>
+      <c r="M33" s="20">
+        <v>6.1856410443948802</v>
+      </c>
+      <c r="N33" s="20">
+        <v>5.1583162329436156</v>
+      </c>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
@@ -10116,11 +10295,17 @@
       <c r="K34" s="16">
         <v>47.482780643967843</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L34" s="16">
         <v>53.467391785239222</v>
       </c>
+      <c r="M34" s="20">
+        <v>80.093128056046268</v>
+      </c>
+      <c r="N34" s="20">
+        <v>93.856535525743396</v>
+      </c>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="10" t="s">
         <v>13</v>
       </c>
@@ -10154,11 +10339,17 @@
       <c r="K35" s="15">
         <v>169.37232552289973</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="15">
         <v>188.67874459682261</v>
       </c>
+      <c r="M35" s="19">
+        <v>220.64041653163872</v>
+      </c>
+      <c r="N35" s="19">
+        <v>209.98092129283725</v>
+      </c>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>14</v>
       </c>
@@ -10192,11 +10383,17 @@
       <c r="K36" s="15">
         <v>271.56614335292801</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="15">
         <v>250.76857751993251</v>
       </c>
+      <c r="M36" s="19">
+        <v>327.14839553622966</v>
+      </c>
+      <c r="N36" s="19">
+        <v>432.31149672053448</v>
+      </c>
     </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>7</v>
       </c>
@@ -10230,11 +10427,17 @@
       <c r="K37" s="16">
         <v>19.520039961631134</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="16">
         <v>23.259058652943132</v>
       </c>
+      <c r="M37" s="20">
+        <v>40.519058110710539</v>
+      </c>
+      <c r="N37" s="20">
+        <v>42.682980288494633</v>
+      </c>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>8</v>
       </c>
@@ -10268,11 +10471,17 @@
       <c r="K38" s="16">
         <v>36.896226413770421</v>
       </c>
-      <c r="L38" s="20">
+      <c r="L38" s="16">
         <v>31.047638946381909</v>
       </c>
+      <c r="M38" s="20">
+        <v>46.222325880979646</v>
+      </c>
+      <c r="N38" s="20">
+        <v>70.091324415378764</v>
+      </c>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+    <row r="39" spans="1:14" ht="15" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>9</v>
       </c>
@@ -10306,11 +10515,17 @@
       <c r="K39" s="16">
         <v>168.18443868996007</v>
       </c>
-      <c r="L39" s="20">
+      <c r="L39" s="16">
         <v>173.97543054975145</v>
       </c>
+      <c r="M39" s="20">
+        <v>186.26848469299549</v>
+      </c>
+      <c r="N39" s="20">
+        <v>233.80259460600351</v>
+      </c>
     </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>10</v>
       </c>
@@ -10344,11 +10559,17 @@
       <c r="K40" s="16">
         <v>46.96543828756645</v>
       </c>
-      <c r="L40" s="20">
+      <c r="L40" s="16">
         <v>22.486449370856032</v>
       </c>
+      <c r="M40" s="20">
+        <v>54.138526851544036</v>
+      </c>
+      <c r="N40" s="20">
+        <v>85.734597410657514</v>
+      </c>
     </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="10" t="s">
         <v>15</v>
       </c>
@@ -10382,11 +10603,17 @@
       <c r="K41" s="15">
         <v>753.35583222736921</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L41" s="15">
         <v>838.93197629404392</v>
       </c>
+      <c r="M41" s="19">
+        <v>1107.1071272603208</v>
+      </c>
+      <c r="N41" s="19">
+        <v>1227.1182494536552</v>
+      </c>
     </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>16</v>
       </c>
@@ -10420,11 +10647,17 @@
       <c r="K42" s="17">
         <v>922.72815775026891</v>
       </c>
-      <c r="L42" s="21">
+      <c r="L42" s="17">
         <v>1027.6107208908666</v>
       </c>
+      <c r="M42" s="21">
+        <v>1327.7475437919595</v>
+      </c>
+      <c r="N42" s="21">
+        <v>1437.0991707464925</v>
+      </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:14">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -10436,8 +10669,9 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:14">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -10449,8 +10683,9 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
+    <row r="45" spans="1:14" ht="30" customHeight="1">
       <c r="A45" s="26" t="s">
         <v>24</v>
       </c>
@@ -10465,8 +10700,10 @@
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
       <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
     </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="5">
         <v>2011</v>
@@ -10501,8 +10738,14 @@
       <c r="L46" s="6">
         <v>2021</v>
       </c>
+      <c r="M46" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="6">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -10536,11 +10779,17 @@
       <c r="K47" s="14">
         <v>241.29791063687037</v>
       </c>
-      <c r="L47" s="22">
+      <c r="L47" s="14">
         <v>289.97511191626671</v>
       </c>
+      <c r="M47" s="22">
+        <v>368.17521970386395</v>
+      </c>
+      <c r="N47" s="22">
+        <v>379.12690850669549</v>
+      </c>
     </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="10" t="s">
         <v>12</v>
       </c>
@@ -10574,11 +10823,17 @@
       <c r="K48" s="15">
         <v>178.53443954249374</v>
       </c>
-      <c r="L48" s="23">
+      <c r="L48" s="15">
         <v>219.54620876321022</v>
       </c>
+      <c r="M48" s="23">
+        <v>286.98952813726805</v>
+      </c>
+      <c r="N48" s="23">
+        <v>299.89681881405011</v>
+      </c>
     </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="11" t="s">
         <v>0</v>
       </c>
@@ -10612,11 +10867,17 @@
       <c r="K49" s="16">
         <v>68.968356671556592</v>
       </c>
-      <c r="L49" s="24">
+      <c r="L49" s="16">
         <v>95.587439845855513</v>
       </c>
+      <c r="M49" s="24">
+        <v>117.48129507679437</v>
+      </c>
+      <c r="N49" s="24">
+        <v>100.21657911271355</v>
+      </c>
     </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="11" t="s">
         <v>1</v>
       </c>
@@ -10650,11 +10911,17 @@
       <c r="K50" s="16">
         <v>4.6574761946014522</v>
       </c>
-      <c r="L50" s="24">
+      <c r="L50" s="16">
         <v>5.8574924174222751</v>
       </c>
+      <c r="M50" s="24">
+        <v>9.4486786551022668</v>
+      </c>
+      <c r="N50" s="24">
+        <v>11.693360112875919</v>
+      </c>
     </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="11" t="s">
         <v>2</v>
       </c>
@@ -10688,11 +10955,17 @@
       <c r="K51" s="16">
         <v>5.7861292971057798</v>
       </c>
-      <c r="L51" s="24">
+      <c r="L51" s="16">
         <v>8.9776930880945613</v>
       </c>
+      <c r="M51" s="24">
+        <v>10.857348088946871</v>
+      </c>
+      <c r="N51" s="24">
+        <v>15.379709458586627</v>
+      </c>
     </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="11" t="s">
         <v>3</v>
       </c>
@@ -10726,11 +10999,17 @@
       <c r="K52" s="16">
         <v>41.208396726179259</v>
       </c>
-      <c r="L52" s="24">
+      <c r="L52" s="16">
         <v>42.217331328447813</v>
       </c>
+      <c r="M52" s="24">
+        <v>53.99937729432915</v>
+      </c>
+      <c r="N52" s="24">
+        <v>55.408677928704911</v>
+      </c>
     </row>
-    <row r="53" spans="1:12" ht="30" customHeight="1">
+    <row r="53" spans="1:14" ht="30" customHeight="1">
       <c r="A53" s="12" t="s">
         <v>17</v>
       </c>
@@ -10764,11 +11043,17 @@
       <c r="K53" s="16">
         <v>24.598536614093298</v>
       </c>
-      <c r="L53" s="24">
+      <c r="L53" s="16">
         <v>26.118827111943844</v>
       </c>
+      <c r="M53" s="24">
+        <v>32.280968709189253</v>
+      </c>
+      <c r="N53" s="24">
+        <v>39.365460873372491</v>
+      </c>
     </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="11" t="s">
         <v>4</v>
       </c>
@@ -10802,11 +11087,17 @@
       <c r="K54" s="16">
         <v>15.327413253175875</v>
       </c>
-      <c r="L54" s="24">
+      <c r="L54" s="16">
         <v>20.012276319332504</v>
       </c>
+      <c r="M54" s="24">
+        <v>31.175176513795769</v>
+      </c>
+      <c r="N54" s="24">
+        <v>40.472705744672552</v>
+      </c>
     </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="11" t="s">
         <v>5</v>
       </c>
@@ -10840,11 +11131,17 @@
       <c r="K55" s="16">
         <v>0.39266989081148973</v>
       </c>
-      <c r="L55" s="24">
+      <c r="L55" s="16">
         <v>0.81715197402601403</v>
       </c>
+      <c r="M55" s="24">
+        <v>2.2760360674895095</v>
+      </c>
+      <c r="N55" s="24">
+        <v>1.9463380543472844</v>
+      </c>
     </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
+    <row r="56" spans="1:14" ht="15" customHeight="1">
       <c r="A56" s="11" t="s">
         <v>6</v>
       </c>
@@ -10878,11 +11175,17 @@
       <c r="K56" s="16">
         <v>17.59546089496995</v>
       </c>
-      <c r="L56" s="24">
+      <c r="L56" s="16">
         <v>19.957996678087685</v>
       </c>
+      <c r="M56" s="24">
+        <v>29.470647731620922</v>
+      </c>
+      <c r="N56" s="24">
+        <v>35.413987528776808</v>
+      </c>
     </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
+    <row r="57" spans="1:14" ht="15" customHeight="1">
       <c r="A57" s="10" t="s">
         <v>13</v>
       </c>
@@ -10916,11 +11219,17 @@
       <c r="K57" s="15">
         <v>62.763471094376655</v>
       </c>
-      <c r="L57" s="23">
+      <c r="L57" s="15">
         <v>70.428903153056481</v>
       </c>
+      <c r="M57" s="23">
+        <v>81.185691566595807</v>
+      </c>
+      <c r="N57" s="23">
+        <v>79.23008969264535</v>
+      </c>
     </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
+    <row r="58" spans="1:14" ht="15" customHeight="1">
       <c r="A58" s="10" t="s">
         <v>14</v>
       </c>
@@ -10954,11 +11263,17 @@
       <c r="K58" s="15">
         <v>100.63293242223548</v>
       </c>
-      <c r="L58" s="23">
+      <c r="L58" s="15">
         <v>93.605434452728915</v>
       </c>
+      <c r="M58" s="23">
+        <v>120.37580944605629</v>
+      </c>
+      <c r="N58" s="23">
+        <v>163.11995608668701</v>
+      </c>
     </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
+    <row r="59" spans="1:14" ht="15" customHeight="1">
       <c r="A59" s="11" t="s">
         <v>7</v>
       </c>
@@ -10992,11 +11307,17 @@
       <c r="K59" s="16">
         <v>7.2334453701957866</v>
       </c>
-      <c r="L59" s="24">
+      <c r="L59" s="16">
         <v>8.6820059821776994</v>
       </c>
+      <c r="M59" s="24">
+        <v>14.909180312725756</v>
+      </c>
+      <c r="N59" s="24">
+        <v>16.105160105906251</v>
+      </c>
     </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
+    <row r="60" spans="1:14" ht="15" customHeight="1">
       <c r="A60" s="11" t="s">
         <v>8</v>
       </c>
@@ -11030,11 +11351,17 @@
       <c r="K60" s="16">
         <v>13.672453471149634</v>
       </c>
-      <c r="L60" s="24">
+      <c r="L60" s="16">
         <v>11.589281883120075</v>
       </c>
+      <c r="M60" s="24">
+        <v>17.007724837782792</v>
+      </c>
+      <c r="N60" s="24">
+        <v>26.446888059711526</v>
+      </c>
     </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
+    <row r="61" spans="1:14" ht="15" customHeight="1">
       <c r="A61" s="11" t="s">
         <v>9</v>
       </c>
@@ -11068,11 +11395,17 @@
       <c r="K61" s="16">
         <v>62.323281702913647</v>
       </c>
-      <c r="L61" s="24">
+      <c r="L61" s="16">
         <v>64.940535699356616</v>
       </c>
+      <c r="M61" s="24">
+        <v>68.53837562754164</v>
+      </c>
+      <c r="N61" s="24">
+        <v>88.218493503860756</v>
+      </c>
     </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
+    <row r="62" spans="1:14" ht="15" customHeight="1">
       <c r="A62" s="11" t="s">
         <v>10</v>
       </c>
@@ -11106,11 +11439,17 @@
       <c r="K62" s="16">
         <v>17.403751877976465</v>
       </c>
-      <c r="L62" s="24">
+      <c r="L62" s="16">
         <v>8.3936108880745479</v>
       </c>
+      <c r="M62" s="24">
+        <v>19.920528668006114</v>
+      </c>
+      <c r="N62" s="24">
+        <v>32.349414417208507</v>
+      </c>
     </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
+    <row r="63" spans="1:14" ht="15" customHeight="1">
       <c r="A63" s="10" t="s">
         <v>15</v>
       </c>
@@ -11144,11 +11483,17 @@
       <c r="K63" s="15">
         <v>279.16737196472923</v>
       </c>
-      <c r="L63" s="23">
+      <c r="L63" s="15">
         <v>313.1516432159392</v>
       </c>
+      <c r="M63" s="23">
+        <v>407.36533758332439</v>
+      </c>
+      <c r="N63" s="23">
+        <v>463.01677490073712</v>
+      </c>
     </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
+    <row r="64" spans="1:14" ht="15" customHeight="1">
       <c r="A64" s="13" t="s">
         <v>16</v>
       </c>
@@ -11182,11 +11527,17 @@
       <c r="K64" s="17">
         <v>341.93084305910588</v>
       </c>
-      <c r="L64" s="25">
+      <c r="L64" s="17">
         <v>383.58054636899573</v>
       </c>
+      <c r="M64" s="25">
+        <v>488.55102914992017</v>
+      </c>
+      <c r="N64" s="25">
+        <v>542.24686459338261</v>
+      </c>
     </row>
-    <row r="65" spans="1:22" ht="15" customHeight="1">
+    <row r="65" spans="1:24" ht="15" customHeight="1">
       <c r="A65" s="27" t="s">
         <v>21</v>
       </c>
@@ -11201,8 +11552,10 @@
       <c r="J65" s="27"/>
       <c r="K65" s="27"/>
       <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
     </row>
-    <row r="66" spans="1:22" ht="15" customHeight="1">
+    <row r="66" spans="1:24" ht="15" customHeight="1">
       <c r="A66" s="28" t="s">
         <v>19</v>
       </c>
@@ -11217,8 +11570,8 @@
       <c r="J66" s="28"/>
       <c r="K66" s="28"/>
       <c r="L66" s="28"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -11227,8 +11580,10 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
     </row>
-    <row r="67" spans="1:22" ht="15" customHeight="1">
+    <row r="67" spans="1:24" ht="15" customHeight="1">
       <c r="A67" s="30" t="s">
         <v>20</v>
       </c>
@@ -11243,8 +11598,8 @@
       <c r="J67" s="30"/>
       <c r="K67" s="30"/>
       <c r="L67" s="30"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -11253,8 +11608,10 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
     </row>
-    <row r="68" spans="1:22" ht="45" customHeight="1">
+    <row r="68" spans="1:24" ht="45" customHeight="1">
       <c r="A68" s="29" t="s">
         <v>18</v>
       </c>
@@ -11269,8 +11626,10 @@
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
       <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:24">
       <c r="A69" s="29"/>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
@@ -11282,8 +11641,9 @@
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
       <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:24">
       <c r="A70" s="29"/>
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
@@ -11295,7 +11655,7 @@
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:24">
       <c r="A71" s="29"/>
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
@@ -11307,7 +11667,7 @@
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:24">
       <c r="A72" s="29"/>
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
@@ -11325,13 +11685,13 @@
     <mergeCell ref="A70:J70"/>
     <mergeCell ref="A71:J71"/>
     <mergeCell ref="A72:J72"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A68:L68"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A67:N67"/>
+    <mergeCell ref="A68:N68"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A66:N66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
